--- a/comparisons/comparationWeibullDistNEW2.xlsx
+++ b/comparisons/comparationWeibullDistNEW2.xlsx
@@ -1,37 +1,60 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documenti\GitHub\Manutenzione-predittiva-BIESSE\comparisons\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CDDFD3-975E-42D1-8CD4-DED2901CD8E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="9768" yWindow="1056" windowWidth="19572" windowHeight="14724" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Ore lavoro svolte</t>
+  </si>
+  <si>
+    <t>Pred. ore rimanenti SVR</t>
+  </si>
+  <si>
+    <t>Pred. ore rimanenti Weibull</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,94 +69,61 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -420,248 +410,308 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Predizione ore_lav_rimanenti</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Ore lavoro svolte</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>168963454.1553991</v>
-      </c>
-      <c r="C2" t="n">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>168963454.15539911</v>
+      </c>
+      <c r="C2" s="2">
+        <v>5675.781787425356</v>
+      </c>
+      <c r="D2" s="2">
         <v>1240.24</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>211.726677635617</v>
-      </c>
-      <c r="C3" t="n">
+      <c r="B3" s="2">
+        <v>211.72667763561699</v>
+      </c>
+      <c r="C3" s="2">
+        <v>-494.96005300897349</v>
+      </c>
+      <c r="D3" s="2">
         <v>706.78</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>5.190423986534779</v>
-      </c>
-      <c r="C4" t="n">
+      <c r="B4" s="2">
+        <v>5.1904239865347792</v>
+      </c>
+      <c r="C4" s="2">
+        <v>151.2470125564798</v>
+      </c>
+      <c r="D4" s="2">
         <v>632.49</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>62.64991934056152</v>
-      </c>
-      <c r="C5" t="n">
+      <c r="B5" s="2">
+        <v>62.649919340561517</v>
+      </c>
+      <c r="C5" s="2">
+        <v>-341.28804248851128</v>
+      </c>
+      <c r="D5" s="2">
         <v>731.7</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="2">
         <v>24.3206497744989</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="2">
+        <v>-651.35655653280605</v>
+      </c>
+      <c r="D6" s="2">
         <v>223.08</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="2">
         <v>65.9089025609548</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="2">
+        <v>-116.4923468925988</v>
+      </c>
+      <c r="D7" s="2">
         <v>753.79</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="2">
         <v>10.35266672732164</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="2">
+        <v>-844.77612219602793</v>
+      </c>
+      <c r="D8" s="2">
         <v>597.96</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
-        <v>12.24962938840591</v>
-      </c>
-      <c r="C9" t="n">
+      <c r="B9" s="2">
+        <v>12.249629388405911</v>
+      </c>
+      <c r="C9" s="2">
+        <v>-866.10796854088017</v>
+      </c>
+      <c r="D9" s="2">
         <v>660.33</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
-        <v>4845.873462739451</v>
-      </c>
-      <c r="C10" t="n">
-        <v>658.3099999999999</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="B10" s="2">
+        <v>4845.8734627394506</v>
+      </c>
+      <c r="C10" s="2">
+        <v>-62.279515907848463</v>
+      </c>
+      <c r="D10" s="2">
+        <v>658.31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="2">
         <v>15301.5153855838</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="2">
+        <v>1397.248474907665</v>
+      </c>
+      <c r="D11" s="2">
         <v>1787.61</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
-        <v>219421.3837269046</v>
-      </c>
-      <c r="C12" t="n">
+      <c r="B12" s="2">
+        <v>219421.38372690461</v>
+      </c>
+      <c r="C12" s="2">
+        <v>-120.2230299202745</v>
+      </c>
+      <c r="D12" s="2">
         <v>364.3</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
-        <v>125.8178845065705</v>
-      </c>
-      <c r="C13" t="n">
+      <c r="B13" s="2">
+        <v>125.81788450657049</v>
+      </c>
+      <c r="C13" s="2">
+        <v>-445.52854336993158</v>
+      </c>
+      <c r="D13" s="2">
         <v>357.43</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
-        <v>30841.12292479153</v>
-      </c>
-      <c r="C14" t="n">
+      <c r="B14" s="2">
+        <v>30841.122924791529</v>
+      </c>
+      <c r="C14" s="2">
+        <v>-1929.5461327560729</v>
+      </c>
+      <c r="D14" s="2">
         <v>1982.66</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
-        <v>2.801840666222422e+17</v>
-      </c>
-      <c r="C15" t="n">
+      <c r="B15" s="2">
+        <v>2.8018406662224221E+17</v>
+      </c>
+      <c r="C15" s="2">
+        <v>480.02294331390681</v>
+      </c>
+      <c r="D15" s="2">
         <v>3429.12</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" s="2">
         <v>6.463032299653797</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16" s="2">
+        <v>355.27715341164389</v>
+      </c>
+      <c r="D16" s="2">
         <v>711.58</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
-        <v>60.20812310378125</v>
-      </c>
-      <c r="C17" t="n">
+      <c r="B17" s="2">
+        <v>60.208123103781247</v>
+      </c>
+      <c r="C17" s="2">
+        <v>-678.28378323163975</v>
+      </c>
+      <c r="D17" s="2">
         <v>1312.52</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" s="2">
         <v>1447.391765769489</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18" s="2">
+        <v>199.7160469277699</v>
+      </c>
+      <c r="D18" s="2">
         <v>408.29</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19" s="2">
         <v>46.4979776367922</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19" s="2">
+        <v>-424.01384032820329</v>
+      </c>
+      <c r="D19" s="2">
         <v>808.04</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20" s="2">
         <v>1502.641343590569</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20" s="2">
+        <v>378.57649455407432</v>
+      </c>
+      <c r="D20" s="2">
         <v>287.44</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="n">
-        <v>1389.04141294929</v>
-      </c>
-      <c r="C21" t="n">
+      <c r="B21" s="2">
+        <v>1389.0414129492899</v>
+      </c>
+      <c r="C21" s="2">
+        <v>664.92594045913961</v>
+      </c>
+      <c r="D21" s="2">
         <v>325.94</v>
       </c>
     </row>
